--- a/target/test-classes/com/finacus/TestCase/travalab.xlsx
+++ b/target/test-classes/com/finacus/TestCase/travalab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FIN_MobiConnect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13215CFA-5920-48EC-9714-818A41F39B6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340AD00A-4A5A-4D73-BBF3-19340C999520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="2640" windowWidth="15375" windowHeight="7875" xr2:uid="{CB2EF90B-94E9-453E-BEB2-6FC469B71AB3}"/>
   </bookViews>
@@ -25,25 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>sushantdawaadda@gmail.com</t>
+    <t>username</t>
   </si>
   <si>
-    <t>India@2021</t>
+    <t>Travalab01</t>
   </si>
   <si>
-    <t>username</t>
+    <t>support@travalab.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +58,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0A3069"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,9 +87,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -402,7 +409,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,38 +420,29 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{17B75055-543F-456B-9339-42B4E415056B}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{4E1E53E3-19CE-4CB9-9B1C-6607BCD7BD8E}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{2EDC94D1-ABEE-41B3-A01C-7CD6757A13C8}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{0E65CD07-000E-40A0-AB84-688EA7349511}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/target/test-classes/com/finacus/TestCase/travalab.xlsx
+++ b/target/test-classes/com/finacus/TestCase/travalab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FIN_MobiConnect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{340AD00A-4A5A-4D73-BBF3-19340C999520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB09CE8-FB6F-46A2-9E2F-1959DDC0096C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="2640" windowWidth="15375" windowHeight="7875" xr2:uid="{CB2EF90B-94E9-453E-BEB2-6FC469B71AB3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>password</t>
   </si>
@@ -409,7 +409,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,16 +430,21 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
